--- a/PEERREVIEW/Product.xlsx
+++ b/PEERREVIEW/Product.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>ProductDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how to assign id for new Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +465,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -510,8 +522,12 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7">
+        <v>42081</v>
+      </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="4">
@@ -530,18 +546,30 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>42081</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42081</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="7"/>
     </row>

--- a/PEERREVIEW/Product.xlsx
+++ b/PEERREVIEW/Product.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,11 +73,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>how to assign id for new Product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fixed</t>
+    <t>logic of assigning product id is wired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should the modify product category's function be allowed?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +477,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -523,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7">
         <v>42081</v>
@@ -547,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>42081</v>
@@ -565,7 +577,7 @@
         <v>42081</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
@@ -578,10 +590,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>42087</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
     </row>
@@ -590,10 +610,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>42087</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="7"/>
     </row>
